--- a/Integration Test Cases V1.xlsx
+++ b/Integration Test Cases V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Bank\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\QA\Bank\banking-qa-web-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03613E98-90B3-4F8D-B047-8AE589041F71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546FC377-4F43-4E51-A699-70E2CB4C72E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C515435E-A073-437F-A530-797A40246A5E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10920" xr2:uid="{C515435E-A073-437F-A530-797A40246A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Integration" sheetId="1" r:id="rId1"/>
@@ -224,10 +224,6 @@
     </r>
   </si>
   <si>
-    <t>1) Tipe "johnsmith279@gmail.com" in  Email field of the user with ID = 1235
-2) Submit</t>
-  </si>
-  <si>
     <t>I5</t>
   </si>
   <si>
@@ -373,18 +369,30 @@
   </si>
   <si>
     <t>"Customer deleted" message displayed</t>
+  </si>
+  <si>
+    <t>1) Type "johnsmith279@gmail.com" in  Email field of the user with ID = 1235
+2) Submit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,13 +462,13 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -472,10 +480,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -798,8 +806,8 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
@@ -931,19 +939,19 @@
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -954,19 +962,19 @@
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>19</v>
@@ -977,19 +985,19 @@
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>19</v>
@@ -1000,19 +1008,19 @@
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>19</v>
@@ -1023,19 +1031,19 @@
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>19</v>
@@ -1046,19 +1054,19 @@
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>19</v>
@@ -1069,19 +1077,19 @@
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>19</v>
@@ -1092,19 +1100,19 @@
     </row>
     <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>19</v>
@@ -1115,19 +1123,19 @@
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>19</v>
@@ -1138,19 +1146,19 @@
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>19</v>
@@ -1161,19 +1169,19 @@
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>19</v>
